--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabewilson/Desktop/worklist_generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivint\OneDrive\Desktop\Kelly_Lab\.venv\worklist_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C475920-8B4E-6047-BA79-7E89E10A5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA46E5-548B-4E5B-B6E0-B58ECD1256FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,11 +871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" zoomScale="83" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AL53" sqref="AL53"/>
+    <sheetView tabSelected="1" topLeftCell="AH8" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AV35" sqref="AV35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
@@ -898,7 +898,7 @@
     <col min="43" max="45" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="11"/>
     </row>
-    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="AV3" s="30"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1131,7 +1131,7 @@
       <c r="AU4" s="30"/>
       <c r="AV4" s="30"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="AU5" s="30"/>
       <c r="AV5" s="30"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="AU6" s="30"/>
       <c r="AV6" s="30"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="AU7" s="30"/>
       <c r="AV7" s="30"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="AU8" s="30"/>
       <c r="AV8" s="30"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>21</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="AU10" s="30"/>
       <c r="AV10" s="30"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>22</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="AU11" s="30"/>
       <c r="AV11" s="30"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="AU12" s="30"/>
       <c r="AV12" s="30"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="AU13" s="30"/>
       <c r="AV13" s="30"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>25</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="AR15" s="12"/>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>27</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="AR16" s="12"/>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>28</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="AR17" s="12"/>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="AR18" s="12"/>
       <c r="AS18" s="11"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>30</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="AR19" s="12"/>
       <c r="AS19" s="11"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="AR20" s="12"/>
       <c r="AS20" s="11"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>32</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="AR21" s="12"/>
       <c r="AS21" s="11"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -2811,7 +2811,7 @@
       <c r="AR22" s="12"/>
       <c r="AS22" s="11"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="AR23" s="12"/>
       <c r="AS23" s="11"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="D24" t="s">
@@ -3009,7 +3009,7 @@
       <c r="AR24" s="12"/>
       <c r="AS24" s="11"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="AR25" s="12"/>
       <c r="AS25" s="11"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="AR26" s="12"/>
       <c r="AS26" s="11"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="AR27" s="12"/>
       <c r="AS27" s="11"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="AR28" s="12"/>
       <c r="AS28" s="11"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="AR29" s="12"/>
       <c r="AS29" s="11"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>23</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="AR30" s="12"/>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>25</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>26</v>
       </c>
@@ -3657,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="AS33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>27</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="AR34" s="12"/>
       <c r="AS34" s="11"/>
     </row>
-    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="AR35" s="12"/>
       <c r="AS35" s="11"/>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>29</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="AR36" s="12"/>
       <c r="AS36" s="11"/>
     </row>
-    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>30</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="AR37" s="12"/>
       <c r="AS37" s="11"/>
     </row>
-    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="AR38" s="12"/>
       <c r="AS38" s="11"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>32</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="AR39" s="12"/>
       <c r="AS39" s="11"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
@@ -3989,7 +3989,7 @@
       <c r="AR40" s="12"/>
       <c r="AS40" s="11"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="AR41" s="12"/>
       <c r="AS41" s="11"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="D42" t="s">
@@ -4139,7 +4139,7 @@
       <c r="AR42" s="12"/>
       <c r="AS42" s="11"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>18</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="AR43" s="12"/>
       <c r="AS43" s="11"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>19</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="AR44" s="12"/>
       <c r="AS44" s="11"/>
     </row>
-    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
         <v>20</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="AR45" s="12"/>
       <c r="AS45" s="11"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>21</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="AR46" s="12"/>
       <c r="AS46" s="11"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>22</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="AR47" s="12"/>
       <c r="AS47" s="11"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="AR48" s="12"/>
       <c r="AS48" s="11"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>24</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="AR49" s="12"/>
       <c r="AS49" s="11"/>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>25</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="AR50" s="12"/>
       <c r="AS50" s="11"/>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
         <v>26</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="AR51" s="20"/>
       <c r="AS51" s="21"/>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
         <v>27</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>28</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="AN53" s="31"/>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>29</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="AM54" s="31"/>
       <c r="AN54" s="31"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
         <v>30</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="AM55" s="31"/>
       <c r="AN55" s="31"/>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>31</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="AK56" s="34"/>
       <c r="AL56" s="37"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>32</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
@@ -4838,7 +4838,7 @@
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE59" s="10"/>
       <c r="AJ59" s="30"/>
       <c r="AK59" s="23"/>
@@ -4846,19 +4846,19 @@
       <c r="AM59" s="23"/>
       <c r="AN59" s="23"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE60" s="10"/>
       <c r="AJ60" s="30"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE61" s="10"/>
       <c r="AJ61" s="30"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE62" s="10"/>
       <c r="AJ62" s="30"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE63" s="10"/>
       <c r="AJ63" s="30"/>
     </row>
@@ -4903,7 +4903,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabewilson/Desktop/worklist_generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C475920-8B4E-6047-BA79-7E89E10A5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A092C9DE-00DC-0F44-B36C-E0094733C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="71">
   <si>
     <t>Notebook code:</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>1-32</t>
+  </si>
+  <si>
+    <t>WetQC</t>
   </si>
 </sst>
 </file>
@@ -871,8 +874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q22" zoomScale="83" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AL53" sqref="AL53"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="83" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP32" sqref="AP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3538,7 +3542,7 @@
         <v>31</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AF32" s="7" t="s">
         <v>66</v>
@@ -3571,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="AP32" s="12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AQ32" s="12">
         <v>3</v>
@@ -3580,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="AS32" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="AS33" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
@@ -4640,7 +4644,7 @@
       </c>
       <c r="AN53" s="31"/>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +4763,7 @@
       <c r="AK56" s="34"/>
       <c r="AL56" s="37"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>32</v>
       </c>

--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivint\OneDrive\Desktop\Kelly_Lab\.venv\worklist_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabewilson/Desktop/worklist_generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA46E5-548B-4E5B-B6E0-B58ECD1256FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD146842-ED4A-F94C-B2DD-3379360D27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" activeTab="1" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="Manager" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
-  <si>
-    <t>Notebook code:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="73">
   <si>
     <t>Number:</t>
   </si>
@@ -69,18 +66,9 @@
     <t>LC method:</t>
   </si>
   <si>
-    <t>Samples/well (Only for wet samples)</t>
-  </si>
-  <si>
     <t>Number of sample to run:</t>
   </si>
   <si>
-    <t>Datapath:</t>
-  </si>
-  <si>
-    <t>System type:</t>
-  </si>
-  <si>
     <t>Plate color:</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t>"Before" indicates that this number of the condition selected should be run before all of the samples. Likewise with "after" referring to after all samples are run. "Between" counts indicate the number runs of this condition to be put into blocks that will be inserted at intervals between blocks of sample.</t>
   </si>
   <si>
-    <t>Library values before or after samples?</t>
-  </si>
-  <si>
     <t>Before</t>
   </si>
   <si>
@@ -171,21 +156,9 @@
     <t>Force even blocks?</t>
   </si>
   <si>
-    <t>Doesn't use all wells in order to create blocks of the same size and evenly spaced nonsample blocks.</t>
-  </si>
-  <si>
     <t>Plate 3</t>
   </si>
   <si>
-    <t>If true blank cells are to be used, only one cell needs to be labeled as such.</t>
-  </si>
-  <si>
-    <t>XS0821</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-  </si>
-  <si>
     <t>2 column</t>
   </si>
   <si>
@@ -228,25 +201,61 @@
     <t>lcmethodshort_dry</t>
   </si>
   <si>
-    <t>QC before</t>
-  </si>
-  <si>
-    <t>QC after</t>
-  </si>
-  <si>
-    <t>QC between</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
-    <t>TrueBlank condition number</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
     <t>1-32</t>
+  </si>
+  <si>
+    <t>WetQC</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Notebook Code:</t>
+  </si>
+  <si>
+    <t>Gabe Wilson</t>
+  </si>
+  <si>
+    <t>GW0826</t>
+  </si>
+  <si>
+    <t>A long set of instructions:</t>
+  </si>
+  <si>
+    <t>Doesn't use all wells in order to create blocks of the same size.</t>
+  </si>
+  <si>
+    <t>Experiment Name:</t>
+  </si>
+  <si>
+    <t>Test experiment</t>
+  </si>
+  <si>
+    <t>Columns:</t>
+  </si>
+  <si>
+    <t>Samples/Well:</t>
+  </si>
+  <si>
+    <t>Library value placement</t>
+  </si>
+  <si>
+    <t>QC before:</t>
+  </si>
+  <si>
+    <t>QC after:</t>
+  </si>
+  <si>
+    <t>Test50</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -446,11 +455,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -520,20 +544,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,23 +920,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH8" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AV35" sqref="AV35"/>
+    <sheetView zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG51" sqref="AG51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="28" width="3.33203125" customWidth="1"/>
     <col min="29" max="29" width="3.33203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="10.5" customWidth="1"/>
-    <col min="31" max="31" width="17.1640625" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" customWidth="1"/>
-    <col min="34" max="34" width="38.1640625" customWidth="1"/>
-    <col min="35" max="35" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
+    <col min="35" max="35" width="42" customWidth="1"/>
     <col min="36" max="36" width="21.1640625" customWidth="1"/>
     <col min="37" max="37" width="20.83203125" customWidth="1"/>
     <col min="38" max="38" width="30.83203125" customWidth="1"/>
@@ -898,167 +948,107 @@
     <col min="43" max="45" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="AE1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AG1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+    </row>
+    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="11"/>
-    </row>
-    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="12">
         <v>2</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="7">
         <v>2</v>
       </c>
-      <c r="AG3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="11"/>
+      <c r="AG3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
       <c r="AU3" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AV3" s="30"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1090,56 +1080,37 @@
         <v>3</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF4" s="7">
         <v>3</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="11"/>
+      <c r="AG4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
       <c r="AU4" s="30"/>
       <c r="AV4" s="30"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1217,56 +1188,37 @@
         <v>4</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF5" s="7">
         <v>4</v>
       </c>
-      <c r="AG5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO5" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="11"/>
+      <c r="AG5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
       <c r="AU5" s="30"/>
       <c r="AV5" s="30"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="14">
         <v>32</v>
@@ -1298,50 +1250,31 @@
         <v>5</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF6" s="7">
         <v>5</v>
       </c>
-      <c r="AG6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO6" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="11"/>
+      <c r="AG6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
       <c r="AU6" s="30"/>
       <c r="AV6" s="30"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="10">
@@ -1401,50 +1334,31 @@
         <v>6</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF7" s="7">
         <v>6</v>
       </c>
-      <c r="AG7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO7" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="11"/>
+      <c r="AG7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
       <c r="AU7" s="30"/>
       <c r="AV7" s="30"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="10">
@@ -1504,50 +1418,31 @@
         <v>7</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF8" s="7">
         <v>7</v>
       </c>
-      <c r="AG8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO8" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="11"/>
+      <c r="AG8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
       <c r="AU8" s="30"/>
       <c r="AV8" s="30"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10"/>
@@ -1597,50 +1492,31 @@
         <v>8</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF9" s="7">
         <v>8</v>
       </c>
-      <c r="AG9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO9" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="11"/>
+      <c r="AG9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -1690,50 +1566,31 @@
         <v>9</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF10" s="7">
         <v>9</v>
       </c>
-      <c r="AG10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO10" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="11"/>
+      <c r="AG10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
       <c r="AU10" s="30"/>
       <c r="AV10" s="30"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
@@ -1783,50 +1640,31 @@
         <v>10</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF11" s="7">
         <v>10</v>
       </c>
-      <c r="AG11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO11" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="11"/>
+      <c r="AG11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="42"/>
+      <c r="AS11" s="42"/>
       <c r="AU11" s="30"/>
       <c r="AV11" s="30"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="10"/>
@@ -1876,50 +1714,31 @@
         <v>11</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF12" s="7">
         <v>11</v>
       </c>
-      <c r="AG12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO12" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="11"/>
+      <c r="AG12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
       <c r="AU12" s="30"/>
       <c r="AV12" s="30"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
@@ -1969,50 +1788,31 @@
         <v>12</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF13" s="7">
         <v>12</v>
       </c>
-      <c r="AG13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="11"/>
+      <c r="AG13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
       <c r="AU13" s="30"/>
       <c r="AV13" s="30"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
@@ -2062,50 +1862,31 @@
         <v>13</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF14" s="7">
         <v>13</v>
       </c>
-      <c r="AG14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO14" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="11"/>
+      <c r="AG14" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10"/>
@@ -2155,48 +1936,29 @@
         <v>14</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF15" s="7">
         <v>14</v>
       </c>
-      <c r="AG15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO15" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="11"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="AG15" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+      <c r="AM15" s="39"/>
+      <c r="AN15" s="39"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="10"/>
@@ -2246,48 +2008,29 @@
         <v>15</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF16" s="7">
         <v>15</v>
       </c>
-      <c r="AG16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO16" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="11"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG16" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="10"/>
@@ -2337,48 +2080,29 @@
         <v>16</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF17" s="7">
         <v>16</v>
       </c>
-      <c r="AG17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="11"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG17" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
@@ -2428,48 +2152,29 @@
         <v>17</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF18" s="7">
         <v>17</v>
       </c>
-      <c r="AG18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO18" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="11"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
@@ -2519,48 +2224,29 @@
         <v>18</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF19" s="7">
         <v>18</v>
       </c>
-      <c r="AG19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO19" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ19" s="12"/>
-      <c r="AR19" s="12"/>
-      <c r="AS19" s="11"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG19" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
@@ -2610,48 +2296,29 @@
         <v>19</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF20" s="7">
         <v>19</v>
       </c>
-      <c r="AG20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO20" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="11"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG20" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
@@ -2701,46 +2368,27 @@
         <v>20</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF21" s="7">
         <v>20</v>
       </c>
-      <c r="AG21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO21" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="11"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG21" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -2772,54 +2420,35 @@
         <v>21</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF22" s="7">
         <v>21</v>
       </c>
-      <c r="AG22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO22" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="11"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG22" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2897,50 +2526,31 @@
         <v>22</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF23" s="7">
         <v>22</v>
       </c>
-      <c r="AG23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO23" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="11"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG23" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
@@ -2970,48 +2580,29 @@
         <v>23</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF24" s="7">
         <v>23</v>
       </c>
-      <c r="AG24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO24" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="11"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG24" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
@@ -3041,48 +2632,29 @@
         <v>24</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF25" s="7">
         <v>24</v>
       </c>
-      <c r="AG25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO25" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="11"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG25" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
@@ -3112,48 +2684,29 @@
         <v>25</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF26" s="7">
         <v>25</v>
       </c>
-      <c r="AG26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO26" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="11"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG26" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
@@ -3183,48 +2736,29 @@
         <v>26</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF27" s="7">
         <v>26</v>
       </c>
-      <c r="AG27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO27" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="11"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="10"/>
@@ -3254,48 +2788,29 @@
         <v>27</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF28" s="7">
         <v>27</v>
       </c>
-      <c r="AG28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO28" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="11"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG28" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="10"/>
@@ -3325,48 +2840,29 @@
         <v>28</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF29" s="7">
         <v>28</v>
       </c>
-      <c r="AG29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO29" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="11"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG29" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="10"/>
@@ -3396,48 +2892,29 @@
         <v>29</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF30" s="7">
         <v>29</v>
       </c>
-      <c r="AG30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO30" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="11"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG30" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="10"/>
@@ -3467,48 +2944,29 @@
         <v>30</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF31" s="7">
         <v>30</v>
       </c>
-      <c r="AG31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO31" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="12">
-        <v>3</v>
-      </c>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="11"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG31" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="10"/>
@@ -3538,54 +2996,29 @@
         <v>31</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AF32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AH32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO32" s="29">
+      <c r="AG32" s="29">
         <v>3</v>
       </c>
-      <c r="AP32" s="12">
-        <v>14</v>
-      </c>
-      <c r="AQ32" s="12">
-        <v>3</v>
-      </c>
-      <c r="AR32" s="12">
-        <v>3</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+    </row>
+    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="10"/>
@@ -3615,54 +3048,35 @@
         <v>32</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO33" s="29">
-        <v>1</v>
-      </c>
-      <c r="AP33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="AG33" s="29">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="10"/>
@@ -3694,22 +3108,19 @@
       <c r="AE34" s="12"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="11"/>
-    </row>
-    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+    </row>
+    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="10"/>
@@ -3741,22 +3152,19 @@
       <c r="AE35" s="12"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="11"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="10"/>
@@ -3788,22 +3196,27 @@
       <c r="AE36" s="12"/>
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="11"/>
-    </row>
-    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ36" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK36" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+    </row>
+    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="10"/>
@@ -3835,22 +3248,23 @@
       <c r="AE37" s="12"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="11"/>
-    </row>
-    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="42"/>
+      <c r="AS37" s="42"/>
+    </row>
+    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
@@ -3882,22 +3296,25 @@
       <c r="AE38" s="12"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="12"/>
-      <c r="AL38" s="11"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="12"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="12"/>
-      <c r="AQ38" s="12"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="11"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AI38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
@@ -3929,20 +3346,19 @@
       <c r="AE39" s="12"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="11"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
@@ -3976,28 +3392,26 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="11"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="12"/>
-      <c r="AO40" s="11"/>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="12"/>
-      <c r="AR40" s="12"/>
-      <c r="AS40" s="11"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4077,24 +3491,22 @@
       <c r="AE41" s="12"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12"/>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="12"/>
-      <c r="AL41" s="11"/>
-      <c r="AM41" s="11"/>
-      <c r="AN41" s="12"/>
-      <c r="AO41" s="11"/>
-      <c r="AP41" s="12"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="12"/>
-      <c r="AS41" s="11"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="42"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
@@ -4126,22 +3538,22 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="12"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="12"/>
-      <c r="AL42" s="11"/>
-      <c r="AM42" s="11"/>
-      <c r="AN42" s="12"/>
-      <c r="AO42" s="11"/>
-      <c r="AP42" s="12"/>
-      <c r="AQ42" s="12"/>
-      <c r="AR42" s="12"/>
-      <c r="AS42" s="11"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="10"/>
@@ -4173,22 +3585,22 @@
       <c r="AE43" s="12"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="12"/>
-      <c r="AL43" s="11"/>
-      <c r="AM43" s="11"/>
-      <c r="AN43" s="12"/>
-      <c r="AO43" s="11"/>
-      <c r="AP43" s="12"/>
-      <c r="AQ43" s="12"/>
-      <c r="AR43" s="12"/>
-      <c r="AS43" s="11"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="42"/>
+      <c r="AJ43" s="42"/>
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="10"/>
@@ -4220,22 +3632,22 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="11"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="12"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="11"/>
-    </row>
-    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH44" s="42"/>
+      <c r="AI44" s="42"/>
+      <c r="AJ44" s="42"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="42"/>
+      <c r="AO44" s="42"/>
+      <c r="AP44" s="42"/>
+      <c r="AQ44" s="42"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+    </row>
+    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="10"/>
@@ -4267,22 +3679,22 @@
       <c r="AE45" s="12"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="11"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="11"/>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="12"/>
-      <c r="AO45" s="11"/>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12"/>
-      <c r="AS45" s="11"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="42"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="10"/>
@@ -4314,22 +3726,22 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="12"/>
-      <c r="AI46" s="12"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="12"/>
-      <c r="AO46" s="11"/>
-      <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="11"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="10"/>
@@ -4361,22 +3773,22 @@
       <c r="AE47" s="12"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="12"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="12"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="12"/>
-      <c r="AS47" s="11"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="10"/>
@@ -4407,23 +3819,23 @@
       </c>
       <c r="AE48" s="12"/>
       <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="12"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="12"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="12"/>
-      <c r="AQ48" s="12"/>
-      <c r="AR48" s="12"/>
-      <c r="AS48" s="11"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="10"/>
@@ -4454,23 +3866,23 @@
       </c>
       <c r="AE49" s="12"/>
       <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="12"/>
-      <c r="AQ49" s="12"/>
-      <c r="AR49" s="12"/>
-      <c r="AS49" s="11"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="42"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="10"/>
@@ -4501,23 +3913,23 @@
       </c>
       <c r="AE50" s="12"/>
       <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="12"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="12"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="11"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="42"/>
+      <c r="AI50" s="42"/>
+      <c r="AJ50" s="42"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="42"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="42"/>
+      <c r="AO50" s="42"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="42"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="42"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="10"/>
@@ -4546,25 +3958,29 @@
       <c r="AD51" s="20">
         <v>50</v>
       </c>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="21"/>
+      <c r="AE51" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF51" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="AG51" s="21"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="20"/>
-      <c r="AL51" s="21"/>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="20"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="20"/>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="21"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="42"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="42"/>
+      <c r="AO51" s="42"/>
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="42"/>
+      <c r="AR51" s="42"/>
+      <c r="AS51" s="42"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="10"/>
@@ -4591,9 +4007,9 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="10"/>
@@ -4619,30 +4035,14 @@
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="9"/>
-      <c r="AE53" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF53" s="30"/>
-      <c r="AH53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL53" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM53" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN53" s="31"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+    </row>
+    <row r="54" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="10"/>
@@ -4668,21 +4068,14 @@
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
       <c r="AB54" s="9"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AH54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI54" s="6"/>
-      <c r="AK54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM54" s="31"/>
-      <c r="AN54" s="31"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="10"/>
@@ -4708,26 +4101,14 @@
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="9"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AH55" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI55" s="35">
-        <v>32</v>
-      </c>
-      <c r="AK55" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL55" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM55" s="31"/>
-      <c r="AN55" s="31"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="10"/>
@@ -4754,14 +4135,10 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="9"/>
       <c r="AE56" s="10"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="36"/>
-      <c r="AK56" s="34"/>
-      <c r="AL56" s="37"/>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="18"/>
@@ -4788,14 +4165,12 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="19"/>
       <c r="AE57" s="10"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="37"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="24"/>
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
@@ -4824,72 +4199,50 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AE58" s="10"/>
-      <c r="AH58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI58" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ58" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="AK58" s="23"/>
       <c r="AL58" s="24"/>
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="AE59" s="10"/>
-      <c r="AJ59" s="30"/>
       <c r="AK59" s="23"/>
       <c r="AL59" s="24"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="23"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="AE60" s="10"/>
-      <c r="AJ60" s="30"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="AE61" s="10"/>
-      <c r="AJ61" s="30"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="AE62" s="10"/>
-      <c r="AJ62" s="30"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="AE63" s="10"/>
-      <c r="AJ63" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="AJ58:AJ63"/>
-    <mergeCell ref="AE53:AF55"/>
+  <mergeCells count="6">
+    <mergeCell ref="AI2:AI31"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AK36:AL38"/>
+    <mergeCell ref="AK33:AL34"/>
     <mergeCell ref="AU3:AV14"/>
-    <mergeCell ref="AM53:AN55"/>
-    <mergeCell ref="AH55:AH57"/>
-    <mergeCell ref="AI55:AI57"/>
-    <mergeCell ref="AK55:AK56"/>
-    <mergeCell ref="AL55:AL56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL55:AL56 AI58" xr:uid="{FA86A04D-C042-8741-AB64-AFB417F744D7}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE33" xr:uid="{F021A723-187F-DD4D-8685-6A2D324FBA89}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE51" xr:uid="{F021A723-187F-DD4D-8685-6A2D324FBA89}">
       <formula1>"Condition,QC,Blank,TrueBlank,Lib,SystemValidation,WetQC"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI53" xr:uid="{FEBF46E2-B8D0-DB4A-AFDC-F2F0CF8E04A9}">
-      <formula1>"Before,After"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{D82200C4-46EB-BD4E-96A1-AE995B7B3830}">
-      <formula1>"1 column, 2 column"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24 A42 A6" xr:uid="{77917AAB-E5BC-9D49-9737-341DECD5F2E8}">
       <formula1>"R,G,B"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ33 AJ38:AJ39" xr:uid="{FA86A04D-C042-8741-AB64-AFB417F744D7}">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4899,12 +4252,2098 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA40715-6F6B-5649-8058-60881427272C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>IF(LEN(User!AE2)=0,"",User!AE2)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C2" s="7">
+        <f>IF(LEN(User!AF2)=0,"",User!AF2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="29">
+        <f>IF(LEN(User!AG2)=0,"",User!AG2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>3</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>IF(LEN(User!AE3)=0,"",User!AE3)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C3" s="7">
+        <f>IF(LEN(User!AF3)=0,"",User!AF3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="29">
+        <f>IF(LEN(User!AG3)=0,"",User!AG3)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>3</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>IF(LEN(User!AE4)=0,"",User!AE4)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C4" s="7">
+        <f>IF(LEN(User!AF4)=0,"",User!AF4)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="29">
+        <f>IF(LEN(User!AG4)=0,"",User!AG4)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="48"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>IF(LEN(User!AE5)=0,"",User!AE5)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C5" s="7">
+        <f>IF(LEN(User!AF5)=0,"",User!AF5)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="29">
+        <f>IF(LEN(User!AG5)=0,"",User!AG5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>IF(LEN(User!AE6)=0,"",User!AE6)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C6" s="7">
+        <f>IF(LEN(User!AF6)=0,"",User!AF6)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="29">
+        <f>IF(LEN(User!AG6)=0,"",User!AG6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>3</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="Q6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>IF(LEN(User!AE7)=0,"",User!AE7)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C7" s="7">
+        <f>IF(LEN(User!AF7)=0,"",User!AF7)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="29">
+        <f>IF(LEN(User!AG7)=0,"",User!AG7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>IF(LEN(User!AE8)=0,"",User!AE8)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C8" s="7">
+        <f>IF(LEN(User!AF8)=0,"",User!AF8)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="29">
+        <f>IF(LEN(User!AG8)=0,"",User!AG8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>IF(LEN(User!AE9)=0,"",User!AE9)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C9" s="7">
+        <f>IF(LEN(User!AF9)=0,"",User!AF9)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="29">
+        <f>IF(LEN(User!AG9)=0,"",User!AG9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>IF(LEN(User!AE10)=0,"",User!AE10)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C10" s="7">
+        <f>IF(LEN(User!AF10)=0,"",User!AF10)</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="29">
+        <f>IF(LEN(User!AG10)=0,"",User!AG10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
+        <v>3</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>IF(LEN(User!AE11)=0,"",User!AE11)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C11" s="7">
+        <f>IF(LEN(User!AF11)=0,"",User!AF11)</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="29">
+        <f>IF(LEN(User!AG11)=0,"",User!AG11)</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>3</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>IF(LEN(User!AE12)=0,"",User!AE12)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C12" s="7">
+        <f>IF(LEN(User!AF12)=0,"",User!AF12)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="29">
+        <f>IF(LEN(User!AG12)=0,"",User!AG12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>IF(LEN(User!AE13)=0,"",User!AE13)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C13" s="7">
+        <f>IF(LEN(User!AF13)=0,"",User!AF13)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="29">
+        <f>IF(LEN(User!AG13)=0,"",User!AG13)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>3</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>IF(LEN(User!AE14)=0,"",User!AE14)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C14" s="7">
+        <f>IF(LEN(User!AF14)=0,"",User!AF14)</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="29">
+        <f>IF(LEN(User!AG14)=0,"",User!AG14)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>3</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>IF(LEN(User!AE15)=0,"",User!AE15)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C15" s="7">
+        <f>IF(LEN(User!AF15)=0,"",User!AF15)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="29">
+        <f>IF(LEN(User!AG15)=0,"",User!AG15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>IF(LEN(User!AE16)=0,"",User!AE16)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C16" s="7">
+        <f>IF(LEN(User!AF16)=0,"",User!AF16)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="29">
+        <f>IF(LEN(User!AG16)=0,"",User!AG16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>3</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>IF(LEN(User!AE17)=0,"",User!AE17)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C17" s="7">
+        <f>IF(LEN(User!AF17)=0,"",User!AF17)</f>
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="29">
+        <f>IF(LEN(User!AG17)=0,"",User!AG17)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <v>3</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>IF(LEN(User!AE18)=0,"",User!AE18)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C18" s="7">
+        <f>IF(LEN(User!AF18)=0,"",User!AF18)</f>
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="29">
+        <f>IF(LEN(User!AG18)=0,"",User!AG18)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="12">
+        <v>3</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>IF(LEN(User!AE19)=0,"",User!AE19)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C19" s="7">
+        <f>IF(LEN(User!AF19)=0,"",User!AF19)</f>
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="29">
+        <f>IF(LEN(User!AG19)=0,"",User!AG19)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>3</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>IF(LEN(User!AE20)=0,"",User!AE20)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C20" s="7">
+        <f>IF(LEN(User!AF20)=0,"",User!AF20)</f>
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="29">
+        <f>IF(LEN(User!AG20)=0,"",User!AG20)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3</v>
+      </c>
+      <c r="N20" s="12"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f>IF(LEN(User!AE21)=0,"",User!AE21)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C21" s="7">
+        <f>IF(LEN(User!AF21)=0,"",User!AF21)</f>
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="29">
+        <f>IF(LEN(User!AG21)=0,"",User!AG21)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f>IF(LEN(User!AE22)=0,"",User!AE22)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C22" s="7">
+        <f>IF(LEN(User!AF22)=0,"",User!AF22)</f>
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="29">
+        <f>IF(LEN(User!AG22)=0,"",User!AG22)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>IF(LEN(User!AE23)=0,"",User!AE23)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C23" s="7">
+        <f>IF(LEN(User!AF23)=0,"",User!AF23)</f>
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="29">
+        <f>IF(LEN(User!AG23)=0,"",User!AG23)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="12">
+        <v>3</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>IF(LEN(User!AE24)=0,"",User!AE24)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C24" s="7">
+        <f>IF(LEN(User!AF24)=0,"",User!AF24)</f>
+        <v>23</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="29">
+        <f>IF(LEN(User!AG24)=0,"",User!AG24)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="12">
+        <v>3</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>IF(LEN(User!AE25)=0,"",User!AE25)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C25" s="7">
+        <f>IF(LEN(User!AF25)=0,"",User!AF25)</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="29">
+        <f>IF(LEN(User!AG25)=0,"",User!AG25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
+        <v>3</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>IF(LEN(User!AE26)=0,"",User!AE26)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C26" s="7">
+        <f>IF(LEN(User!AF26)=0,"",User!AF26)</f>
+        <v>25</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="29">
+        <f>IF(LEN(User!AG26)=0,"",User!AG26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>IF(LEN(User!AE27)=0,"",User!AE27)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C27" s="7">
+        <f>IF(LEN(User!AF27)=0,"",User!AF27)</f>
+        <v>26</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="29">
+        <f>IF(LEN(User!AG27)=0,"",User!AG27)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="12">
+        <v>3</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>IF(LEN(User!AE28)=0,"",User!AE28)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C28" s="7">
+        <f>IF(LEN(User!AF28)=0,"",User!AF28)</f>
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="29">
+        <f>IF(LEN(User!AG28)=0,"",User!AG28)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="12">
+        <v>3</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>IF(LEN(User!AE29)=0,"",User!AE29)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C29" s="7">
+        <f>IF(LEN(User!AF29)=0,"",User!AF29)</f>
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="29">
+        <f>IF(LEN(User!AG29)=0,"",User!AG29)</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="12">
+        <v>3</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>IF(LEN(User!AE30)=0,"",User!AE30)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C30" s="7">
+        <f>IF(LEN(User!AF30)=0,"",User!AF30)</f>
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="29">
+        <f>IF(LEN(User!AG30)=0,"",User!AG30)</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="12">
+        <v>3</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f>IF(LEN(User!AE31)=0,"",User!AE31)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C31" s="7">
+        <f>IF(LEN(User!AF31)=0,"",User!AF31)</f>
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="29">
+        <f>IF(LEN(User!AG31)=0,"",User!AG31)</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="12">
+        <v>3</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f>IF(LEN(User!AE32)=0,"",User!AE32)</f>
+        <v>WetQC</v>
+      </c>
+      <c r="C32" s="7" t="str">
+        <f>IF(LEN(User!AF32)=0,"",User!AF32)</f>
+        <v>QC</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="29">
+        <f>IF(LEN(User!AG32)=0,"",User!AG32)</f>
+        <v>3</v>
+      </c>
+      <c r="M32" s="12">
+        <v>10</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3</v>
+      </c>
+      <c r="O32" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f>IF(LEN(User!AE33)=0,"",User!AE33)</f>
+        <v>TrueBlank</v>
+      </c>
+      <c r="C33" s="7" t="str">
+        <f>IF(LEN(User!AF33)=0,"",User!AF33)</f>
+        <v>TrueBlank</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="29">
+        <f>IF(LEN(User!AG33)=0,"",User!AG33)</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="12">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f>IF(LEN(User!AE34)=0,"",User!AE34)</f>
+        <v/>
+      </c>
+      <c r="C34" s="7" t="str">
+        <f>IF(LEN(User!AF34)=0,"",User!AF34)</f>
+        <v/>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="29" t="str">
+        <f>IF(LEN(User!AG34)=0,"",User!AG34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f>IF(LEN(User!AE35)=0,"",User!AE35)</f>
+        <v/>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f>IF(LEN(User!AF35)=0,"",User!AF35)</f>
+        <v/>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="29" t="str">
+        <f>IF(LEN(User!AG35)=0,"",User!AG35)</f>
+        <v/>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f>IF(LEN(User!AE36)=0,"",User!AE36)</f>
+        <v/>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f>IF(LEN(User!AF36)=0,"",User!AF36)</f>
+        <v/>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="29" t="str">
+        <f>IF(LEN(User!AG36)=0,"",User!AG36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>IF(LEN(User!AE37)=0,"",User!AE37)</f>
+        <v/>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f>IF(LEN(User!AF37)=0,"",User!AF37)</f>
+        <v/>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="29" t="str">
+        <f>IF(LEN(User!AG37)=0,"",User!AG37)</f>
+        <v/>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f>IF(LEN(User!AE38)=0,"",User!AE38)</f>
+        <v/>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>IF(LEN(User!AF38)=0,"",User!AF38)</f>
+        <v/>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="29" t="str">
+        <f>IF(LEN(User!AG38)=0,"",User!AG38)</f>
+        <v/>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f>IF(LEN(User!AE39)=0,"",User!AE39)</f>
+        <v/>
+      </c>
+      <c r="C39" s="7" t="str">
+        <f>IF(LEN(User!AF39)=0,"",User!AF39)</f>
+        <v/>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="29" t="str">
+        <f>IF(LEN(User!AG39)=0,"",User!AG39)</f>
+        <v/>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f>IF(LEN(User!AE40)=0,"",User!AE40)</f>
+        <v/>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f>IF(LEN(User!AF40)=0,"",User!AF40)</f>
+        <v/>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="29" t="str">
+        <f>IF(LEN(User!AG40)=0,"",User!AG40)</f>
+        <v/>
+      </c>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f>IF(LEN(User!AE41)=0,"",User!AE41)</f>
+        <v/>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f>IF(LEN(User!AF41)=0,"",User!AF41)</f>
+        <v/>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="29" t="str">
+        <f>IF(LEN(User!AG41)=0,"",User!AG41)</f>
+        <v/>
+      </c>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f>IF(LEN(User!AE42)=0,"",User!AE42)</f>
+        <v/>
+      </c>
+      <c r="C42" s="7" t="str">
+        <f>IF(LEN(User!AF42)=0,"",User!AF42)</f>
+        <v/>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="29" t="str">
+        <f>IF(LEN(User!AG42)=0,"",User!AG42)</f>
+        <v/>
+      </c>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f>IF(LEN(User!AE43)=0,"",User!AE43)</f>
+        <v/>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f>IF(LEN(User!AF43)=0,"",User!AF43)</f>
+        <v/>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="29" t="str">
+        <f>IF(LEN(User!AG43)=0,"",User!AG43)</f>
+        <v/>
+      </c>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="str">
+        <f>IF(LEN(User!AE44)=0,"",User!AE44)</f>
+        <v/>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>IF(LEN(User!AF44)=0,"",User!AF44)</f>
+        <v/>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="29" t="str">
+        <f>IF(LEN(User!AG44)=0,"",User!AG44)</f>
+        <v/>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f>IF(LEN(User!AE45)=0,"",User!AE45)</f>
+        <v/>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f>IF(LEN(User!AF45)=0,"",User!AF45)</f>
+        <v/>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="29" t="str">
+        <f>IF(LEN(User!AG45)=0,"",User!AG45)</f>
+        <v/>
+      </c>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f>IF(LEN(User!AE46)=0,"",User!AE46)</f>
+        <v/>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>IF(LEN(User!AF46)=0,"",User!AF46)</f>
+        <v/>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="29" t="str">
+        <f>IF(LEN(User!AG46)=0,"",User!AG46)</f>
+        <v/>
+      </c>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f>IF(LEN(User!AE47)=0,"",User!AE47)</f>
+        <v/>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f>IF(LEN(User!AF47)=0,"",User!AF47)</f>
+        <v/>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="29" t="str">
+        <f>IF(LEN(User!AG47)=0,"",User!AG47)</f>
+        <v/>
+      </c>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f>IF(LEN(User!AE48)=0,"",User!AE48)</f>
+        <v/>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f>IF(LEN(User!AF48)=0,"",User!AF48)</f>
+        <v/>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="29" t="str">
+        <f>IF(LEN(User!AG48)=0,"",User!AG48)</f>
+        <v/>
+      </c>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f>IF(LEN(User!AE49)=0,"",User!AE49)</f>
+        <v/>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>IF(LEN(User!AF49)=0,"",User!AF49)</f>
+        <v/>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="29" t="str">
+        <f>IF(LEN(User!AG49)=0,"",User!AG49)</f>
+        <v/>
+      </c>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f>IF(LEN(User!AE50)=0,"",User!AE50)</f>
+        <v/>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f>IF(LEN(User!AF50)=0,"",User!AF50)</f>
+        <v/>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="29" t="str">
+        <f>IF(LEN(User!AG50)=0,"",User!AG50)</f>
+        <v/>
+      </c>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="str">
+        <f>IF(LEN(User!AE51)=0,"",User!AE51)</f>
+        <v>Condition</v>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>IF(LEN(User!AF51)=0,"",User!AF51)</f>
+        <v>Test50</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="29" t="str">
+        <f>IF(LEN(User!AG51)=0,"",User!AG51)</f>
+        <v/>
+      </c>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C51" xr:uid="{187E9458-F80F-4040-ADAB-CFE8AE95B8DD}">
+      <formula1>"Condition,QC,Blank,TrueBlank,Lib,SystemValidation,WetQC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5" xr:uid="{FEBF46E2-B8D0-DB4A-AFDC-F2F0CF8E04A9}">
+      <formula1>"Before,After"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{38B3635F-E371-C941-A218-633361397008}">
+      <formula1>"1 column, 2 column"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivint\OneDrive\Desktop\Kelly_Lab\.venv\worklist_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDA46E5-548B-4E5B-B6E0-B58ECD1256FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{60CEAB5E-1B2A-42D8-B1E6-AC461F9ED1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE19B2A-825C-432F-9012-188A1843CB6B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
   <si>
     <t>Notebook code:</t>
   </si>
@@ -186,67 +186,76 @@
     <t>Nothing</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>TrueBlank</t>
+  </si>
+  <si>
+    <t>D:/data/Ximena/Gonda0821</t>
+  </si>
+  <si>
+    <t>D:/method/Chao/something</t>
+  </si>
+  <si>
+    <t>DIA20ng</t>
+  </si>
+  <si>
+    <t>LC method file name:</t>
+  </si>
+  <si>
+    <t>MS method file name:</t>
+  </si>
+  <si>
+    <t>C:/data/Ximena/Gonda</t>
+  </si>
+  <si>
+    <t>lcmethodpath</t>
+  </si>
+  <si>
+    <t>lcmethodfilename</t>
+  </si>
+  <si>
+    <t>lcmethodshort_dry</t>
+  </si>
+  <si>
+    <t>QC before</t>
+  </si>
+  <si>
+    <t>QC after</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>TrueBlank condition number</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Frequency of QC blocks:</t>
+  </si>
+  <si>
+    <t>QC per block</t>
+  </si>
+  <si>
+    <t>blueplate</t>
+  </si>
+  <si>
+    <t>greenplate</t>
+  </si>
+  <si>
+    <t>redplate</t>
+  </si>
+  <si>
+    <t>QC per between block</t>
+  </si>
+  <si>
     <t>2 column</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Gonda</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>TrueBlank</t>
-  </si>
-  <si>
-    <t>D:/data/Ximena/Gonda0821</t>
-  </si>
-  <si>
-    <t>D:/method/Chao/something</t>
-  </si>
-  <si>
-    <t>DIA20ng</t>
-  </si>
-  <si>
-    <t>LC method file name:</t>
-  </si>
-  <si>
-    <t>MS method file name:</t>
-  </si>
-  <si>
-    <t>C:/data/Ximena/Gonda</t>
-  </si>
-  <si>
-    <t>lcmethodpath</t>
-  </si>
-  <si>
-    <t>lcmethodfilename</t>
-  </si>
-  <si>
-    <t>lcmethodshort_dry</t>
-  </si>
-  <si>
-    <t>QC before</t>
-  </si>
-  <si>
-    <t>QC after</t>
-  </si>
-  <si>
-    <t>QC between</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>TrueBlank condition number</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>1-32</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -511,6 +520,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -871,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH8" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AV35" sqref="AV35"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -889,13 +904,14 @@
     <col min="34" max="34" width="38.1640625" customWidth="1"/>
     <col min="35" max="35" width="15.33203125" customWidth="1"/>
     <col min="36" max="36" width="21.1640625" customWidth="1"/>
-    <col min="37" max="37" width="20.83203125" customWidth="1"/>
+    <col min="37" max="37" width="23.08203125" customWidth="1"/>
     <col min="38" max="38" width="30.83203125" customWidth="1"/>
     <col min="39" max="39" width="14.83203125" customWidth="1"/>
     <col min="40" max="40" width="25.83203125" customWidth="1"/>
     <col min="41" max="41" width="30.1640625" customWidth="1"/>
     <col min="42" max="42" width="21.83203125" customWidth="1"/>
-    <col min="43" max="45" width="15.33203125" customWidth="1"/>
+    <col min="43" max="44" width="15.33203125" customWidth="1"/>
+    <col min="45" max="45" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
@@ -924,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>7</v>
@@ -936,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO1" s="28" t="s">
         <v>10</v>
@@ -945,13 +961,13 @@
         <v>11</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
@@ -965,34 +981,34 @@
         <v>1</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF2" s="7">
         <v>1</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO2" s="29">
         <v>1</v>
@@ -1009,40 +1025,40 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="12">
         <v>2</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF3" s="7">
         <v>2</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN3" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO3" s="29">
         <v>1</v>
@@ -1053,10 +1069,10 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="11"/>
-      <c r="AU3" s="30" t="s">
+      <c r="AU3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AV3" s="30"/>
+      <c r="AV3" s="32"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
@@ -1090,34 +1106,34 @@
         <v>3</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF4" s="7">
         <v>3</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN4" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO4" s="29">
         <v>1</v>
@@ -1128,8 +1144,8 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="11"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
@@ -1217,34 +1233,34 @@
         <v>4</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="7">
         <v>4</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN5" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO5" s="29">
         <v>1</v>
@@ -1255,15 +1271,15 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="11"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1298,34 +1314,34 @@
         <v>5</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="7">
         <v>5</v>
       </c>
       <c r="AG6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN6" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO6" s="29">
         <v>1</v>
@@ -1336,8 +1352,8 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="11"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
@@ -1401,34 +1417,34 @@
         <v>6</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF7" s="7">
         <v>6</v>
       </c>
       <c r="AG7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN7" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO7" s="29">
         <v>1</v>
@@ -1439,8 +1455,8 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="11"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
@@ -1504,34 +1520,34 @@
         <v>7</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF8" s="7">
         <v>7</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN8" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO8" s="29">
         <v>1</v>
@@ -1542,8 +1558,8 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="11"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
@@ -1597,34 +1613,34 @@
         <v>8</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF9" s="7">
         <v>8</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN9" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN9" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO9" s="29">
         <v>1</v>
@@ -1635,8 +1651,8 @@
       <c r="AQ9" s="12"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="11"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
@@ -1690,34 +1706,34 @@
         <v>9</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF10" s="7">
         <v>9</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN10" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN10" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO10" s="29">
         <v>1</v>
@@ -1728,8 +1744,8 @@
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="11"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
@@ -1783,34 +1799,34 @@
         <v>10</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF11" s="7">
         <v>10</v>
       </c>
       <c r="AG11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN11" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO11" s="29">
         <v>1</v>
@@ -1821,8 +1837,8 @@
       <c r="AQ11" s="12"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="11"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
@@ -1876,34 +1892,34 @@
         <v>11</v>
       </c>
       <c r="AE12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="7">
         <v>11</v>
       </c>
       <c r="AG12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN12" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN12" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO12" s="29">
         <v>1</v>
@@ -1914,8 +1930,8 @@
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="11"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
@@ -1969,34 +1985,34 @@
         <v>12</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF13" s="7">
         <v>12</v>
       </c>
       <c r="AG13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ13" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN13" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN13" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO13" s="29">
         <v>1</v>
@@ -2007,8 +2023,8 @@
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="11"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
@@ -2062,34 +2078,34 @@
         <v>13</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF14" s="7">
         <v>13</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN14" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO14" s="29">
         <v>1</v>
@@ -2100,8 +2116,8 @@
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="11"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
@@ -2155,34 +2171,34 @@
         <v>14</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF15" s="7">
         <v>14</v>
       </c>
       <c r="AG15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN15" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN15" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO15" s="29">
         <v>1</v>
@@ -2246,34 +2262,34 @@
         <v>15</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF16" s="7">
         <v>15</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN16" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN16" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO16" s="29">
         <v>1</v>
@@ -2337,34 +2353,34 @@
         <v>16</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF17" s="7">
         <v>16</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN17" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN17" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO17" s="29">
         <v>1</v>
@@ -2428,34 +2444,34 @@
         <v>17</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF18" s="7">
         <v>17</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN18" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN18" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO18" s="29">
         <v>1</v>
@@ -2519,34 +2535,34 @@
         <v>18</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF19" s="7">
         <v>18</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN19" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN19" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO19" s="29">
         <v>1</v>
@@ -2610,34 +2626,34 @@
         <v>19</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="7">
         <v>19</v>
       </c>
       <c r="AG20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN20" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN20" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO20" s="29">
         <v>1</v>
@@ -2701,34 +2717,34 @@
         <v>20</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF21" s="7">
         <v>20</v>
       </c>
       <c r="AG21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN21" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN21" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO21" s="29">
         <v>1</v>
@@ -2772,34 +2788,34 @@
         <v>21</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF22" s="7">
         <v>21</v>
       </c>
       <c r="AG22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN22" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN22" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO22" s="29">
         <v>1</v>
@@ -2897,34 +2913,34 @@
         <v>22</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF23" s="7">
         <v>22</v>
       </c>
       <c r="AG23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ23" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN23" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN23" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO23" s="29">
         <v>1</v>
@@ -2937,8 +2953,12 @@
       <c r="AS23" s="11"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
@@ -2970,34 +2990,34 @@
         <v>23</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF24" s="7">
         <v>23</v>
       </c>
       <c r="AG24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN24" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN24" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO24" s="29">
         <v>1</v>
@@ -3041,34 +3061,34 @@
         <v>24</v>
       </c>
       <c r="AE25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF25" s="7">
         <v>24</v>
       </c>
       <c r="AG25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH25" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ25" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN25" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN25" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO25" s="29">
         <v>1</v>
@@ -3112,34 +3132,34 @@
         <v>25</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF26" s="7">
         <v>25</v>
       </c>
       <c r="AG26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH26" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN26" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN26" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO26" s="29">
         <v>1</v>
@@ -3183,34 +3203,34 @@
         <v>26</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF27" s="7">
         <v>26</v>
       </c>
       <c r="AG27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH27" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI27" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN27" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN27" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO27" s="29">
         <v>1</v>
@@ -3254,34 +3274,34 @@
         <v>27</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF28" s="7">
         <v>27</v>
       </c>
       <c r="AG28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH28" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN28" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN28" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO28" s="29">
         <v>1</v>
@@ -3325,34 +3345,34 @@
         <v>28</v>
       </c>
       <c r="AE29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF29" s="7">
         <v>28</v>
       </c>
       <c r="AG29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH29" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI29" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ29" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN29" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN29" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO29" s="29">
         <v>1</v>
@@ -3396,34 +3416,34 @@
         <v>29</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF30" s="7">
         <v>29</v>
       </c>
       <c r="AG30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI30" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ30" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN30" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN30" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO30" s="29">
         <v>1</v>
@@ -3467,34 +3487,34 @@
         <v>30</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF31" s="7">
         <v>30</v>
       </c>
       <c r="AG31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH31" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI31" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ31" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN31" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN31" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO31" s="29">
         <v>1</v>
@@ -3538,34 +3558,34 @@
         <v>31</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AF32" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AG32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH32" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI32" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN32" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN32" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO32" s="29">
         <v>3</v>
@@ -3580,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="AS32" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.4">
@@ -3615,40 +3635,40 @@
         <v>32</v>
       </c>
       <c r="AE33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AF33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH33" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="AI33" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AJ33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN33" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="AL33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN33" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="AO33" s="29">
         <v>1</v>
       </c>
       <c r="AP33" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AQ33" s="12">
         <v>1</v>
@@ -4091,8 +4111,12 @@
       <c r="AS41" s="11"/>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
@@ -4619,10 +4643,10 @@
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="9"/>
-      <c r="AE53" s="30" t="s">
+      <c r="AE53" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AF53" s="30"/>
+      <c r="AF53" s="32"/>
       <c r="AH53" s="1" t="s">
         <v>35</v>
       </c>
@@ -4633,12 +4657,12 @@
         <v>37</v>
       </c>
       <c r="AL53" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM53" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM53" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AN53" s="31"/>
+      <c r="AN53" s="33"/>
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
@@ -4668,8 +4692,8 @@
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
       <c r="AB54" s="9"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
       <c r="AH54" s="1" t="s">
         <v>39</v>
       </c>
@@ -4677,8 +4701,8 @@
       <c r="AK54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM54" s="31"/>
-      <c r="AN54" s="31"/>
+      <c r="AM54" s="33"/>
+      <c r="AN54" s="33"/>
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
@@ -4708,22 +4732,22 @@
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="9"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AH55" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI55" s="35">
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AH55" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI55" s="37">
         <v>32</v>
       </c>
-      <c r="AK55" s="32" t="s">
+      <c r="AK55" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AL55" s="35" t="s">
+      <c r="AL55" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AM55" s="31"/>
-      <c r="AN55" s="31"/>
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
@@ -4754,10 +4778,10 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="9"/>
       <c r="AE56" s="10"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="36"/>
-      <c r="AK56" s="34"/>
-      <c r="AL56" s="37"/>
+      <c r="AH56" s="35"/>
+      <c r="AI56" s="38"/>
+      <c r="AK56" s="36"/>
+      <c r="AL56" s="39"/>
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
@@ -4788,10 +4812,14 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="19"/>
       <c r="AE57" s="10"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="37"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="24"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="39"/>
+      <c r="AK57" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL57" s="31">
+        <v>27</v>
+      </c>
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
     </row>
@@ -4830,17 +4858,21 @@
       <c r="AI58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AJ58" s="30" t="s">
+      <c r="AJ58" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="24"/>
+      <c r="AK58" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL58" s="31">
+        <v>3</v>
+      </c>
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE59" s="10"/>
-      <c r="AJ59" s="30"/>
+      <c r="AJ59" s="32"/>
       <c r="AK59" s="23"/>
       <c r="AL59" s="24"/>
       <c r="AM59" s="23"/>
@@ -4848,19 +4880,19 @@
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE60" s="10"/>
-      <c r="AJ60" s="30"/>
+      <c r="AJ60" s="32"/>
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE61" s="10"/>
-      <c r="AJ61" s="30"/>
+      <c r="AJ61" s="32"/>
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE62" s="10"/>
-      <c r="AJ62" s="30"/>
+      <c r="AJ62" s="32"/>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.4">
       <c r="AE63" s="10"/>
-      <c r="AJ63" s="30"/>
+      <c r="AJ63" s="32"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>

--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabewilson/Desktop/worklist_generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD146842-ED4A-F94C-B2DD-3379360D27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7C7E8BA-5CC4-4271-B611-C0C6CADF7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6F9BAE-57F7-4610-A78F-0F18A95C5C8E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" activeTab="1" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Manager" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
   <si>
     <t>Number:</t>
   </si>
@@ -207,9 +207,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>1-32</t>
-  </si>
-  <si>
     <t>WetQC</t>
   </si>
   <si>
@@ -255,7 +252,10 @@
     <t>QC after:</t>
   </si>
   <si>
-    <t>Test50</t>
+    <t>Frequency of QC</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -535,11 +535,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -556,33 +567,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,6 +585,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,12 +910,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG51" sqref="AG51"/>
+    <sheetView zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -948,12 +938,12 @@
     <col min="43" max="45" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>0</v>
@@ -965,27 +955,17 @@
         <v>2</v>
       </c>
       <c r="AG1" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="34"/>
+      <c r="AO1" s="33"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="12">
         <v>1</v>
@@ -999,26 +979,22 @@
       <c r="AG2" s="29">
         <v>1</v>
       </c>
-      <c r="AI2" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-    </row>
-    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="33"/>
+    </row>
+    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AD3" s="12">
         <v>2</v>
@@ -1032,23 +1008,19 @@
       <c r="AG3" s="29">
         <v>1</v>
       </c>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AU3" s="30" t="s">
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="33"/>
+      <c r="AU3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AV3" s="30"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AV3" s="36"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1088,21 +1060,17 @@
       <c r="AG4" s="29">
         <v>1</v>
       </c>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="33"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1196,21 +1164,17 @@
       <c r="AG5" s="29">
         <v>1</v>
       </c>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="33"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>41</v>
       </c>
@@ -1258,21 +1222,17 @@
       <c r="AG6" s="29">
         <v>1</v>
       </c>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="33"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -1342,21 +1302,17 @@
       <c r="AG7" s="29">
         <v>1</v>
       </c>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="33"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>15</v>
       </c>
@@ -1426,21 +1382,17 @@
       <c r="AG8" s="29">
         <v>1</v>
       </c>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="33"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>16</v>
       </c>
@@ -1500,21 +1452,17 @@
       <c r="AG9" s="29">
         <v>1</v>
       </c>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="33"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -1574,21 +1522,17 @@
       <c r="AG10" s="29">
         <v>1</v>
       </c>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="33"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -1648,21 +1592,17 @@
       <c r="AG11" s="29">
         <v>1</v>
       </c>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="33"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -1722,21 +1662,17 @@
       <c r="AG12" s="29">
         <v>1</v>
       </c>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="33"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>20</v>
       </c>
@@ -1796,21 +1732,17 @@
       <c r="AG13" s="29">
         <v>1</v>
       </c>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="33"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>21</v>
       </c>
@@ -1870,21 +1802,17 @@
       <c r="AG14" s="29">
         <v>1</v>
       </c>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="33"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -1944,19 +1872,15 @@
       <c r="AG15" s="29">
         <v>1</v>
       </c>
-      <c r="AI15" s="49"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="33"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>23</v>
       </c>
@@ -2016,19 +1940,15 @@
       <c r="AG16" s="29">
         <v>1</v>
       </c>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="33"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>24</v>
       </c>
@@ -2088,19 +2008,15 @@
       <c r="AG17" s="29">
         <v>1</v>
       </c>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="33"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>25</v>
       </c>
@@ -2160,19 +2076,15 @@
       <c r="AG18" s="29">
         <v>1</v>
       </c>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="33"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>26</v>
       </c>
@@ -2232,19 +2144,15 @@
       <c r="AG19" s="29">
         <v>1</v>
       </c>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="33"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>27</v>
       </c>
@@ -2304,19 +2212,15 @@
       <c r="AG20" s="29">
         <v>1</v>
       </c>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="33"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>28</v>
       </c>
@@ -2376,19 +2280,15 @@
       <c r="AG21" s="29">
         <v>1</v>
       </c>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="33"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -2428,19 +2328,15 @@
       <c r="AG22" s="29">
         <v>1</v>
       </c>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="33"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -2534,19 +2430,15 @@
       <c r="AG23" s="29">
         <v>1</v>
       </c>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39"/>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="33"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="D24" t="s">
@@ -2588,19 +2480,15 @@
       <c r="AG24" s="29">
         <v>1</v>
       </c>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="33"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>14</v>
       </c>
@@ -2640,19 +2528,15 @@
       <c r="AG25" s="29">
         <v>1</v>
       </c>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="33"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>15</v>
       </c>
@@ -2692,19 +2576,15 @@
       <c r="AG26" s="29">
         <v>1</v>
       </c>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="33"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>16</v>
       </c>
@@ -2744,19 +2624,15 @@
       <c r="AG27" s="29">
         <v>1</v>
       </c>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="33"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>17</v>
       </c>
@@ -2796,19 +2672,15 @@
       <c r="AG28" s="29">
         <v>1</v>
       </c>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="33"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>18</v>
       </c>
@@ -2848,19 +2720,15 @@
       <c r="AG29" s="29">
         <v>1</v>
       </c>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="33"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>19</v>
       </c>
@@ -2900,19 +2768,15 @@
       <c r="AG30" s="29">
         <v>1</v>
       </c>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="33"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>20</v>
       </c>
@@ -2952,19 +2816,15 @@
       <c r="AG31" s="29">
         <v>1</v>
       </c>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="33"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +2856,7 @@
         <v>31</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF32" s="7" t="s">
         <v>54</v>
@@ -3004,19 +2864,15 @@
       <c r="AG32" s="29">
         <v>3</v>
       </c>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-    </row>
-    <row r="33" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="33"/>
+    </row>
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>22</v>
       </c>
@@ -3060,21 +2916,17 @@
         <v>38</v>
       </c>
       <c r="AJ33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK33" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL33" s="31"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="AK33" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="33"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>23</v>
       </c>
@@ -3108,17 +2960,10 @@
       <c r="AE34" s="12"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-    </row>
-    <row r="35" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+    </row>
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>24</v>
       </c>
@@ -3153,16 +2998,8 @@
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
       <c r="AK35" s="23"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="42"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>25</v>
       </c>
@@ -3200,21 +3037,14 @@
         <v>32</v>
       </c>
       <c r="AJ36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK36" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK36" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-    </row>
-    <row r="37" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL36" s="43"/>
+    </row>
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>26</v>
       </c>
@@ -3252,17 +3082,10 @@
         <v>35</v>
       </c>
       <c r="AJ37" s="6"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="42"/>
-      <c r="AS37" s="42"/>
-    </row>
-    <row r="38" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="43"/>
+    </row>
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>27</v>
       </c>
@@ -3296,23 +3119,16 @@
       <c r="AE38" s="12"/>
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AI38" s="32" t="s">
+      <c r="AI38" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AJ38" s="34" t="s">
+      <c r="AJ38" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42"/>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="43"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>28</v>
       </c>
@@ -3346,19 +3162,12 @@
       <c r="AE39" s="12"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="35"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
@@ -3392,18 +3201,10 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -3491,18 +3292,10 @@
       <c r="AE41" s="12"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="42"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="42"/>
-      <c r="AO41" s="42"/>
-      <c r="AP41" s="42"/>
-      <c r="AQ41" s="42"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="D42" t="s">
@@ -3538,20 +3331,8 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
         <v>14</v>
       </c>
@@ -3585,20 +3366,8 @@
       <c r="AE43" s="12"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="42"/>
-      <c r="AI43" s="42"/>
-      <c r="AJ43" s="42"/>
-      <c r="AK43" s="42"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="42"/>
-      <c r="AO43" s="42"/>
-      <c r="AP43" s="42"/>
-      <c r="AQ43" s="42"/>
-      <c r="AR43" s="42"/>
-      <c r="AS43" s="42"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>15</v>
       </c>
@@ -3632,20 +3401,8 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="42"/>
-      <c r="AI44" s="42"/>
-      <c r="AJ44" s="42"/>
-      <c r="AK44" s="42"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="42"/>
-      <c r="AO44" s="42"/>
-      <c r="AP44" s="42"/>
-      <c r="AQ44" s="42"/>
-      <c r="AR44" s="42"/>
-      <c r="AS44" s="42"/>
-    </row>
-    <row r="45" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
         <v>16</v>
       </c>
@@ -3679,20 +3436,8 @@
       <c r="AE45" s="12"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>17</v>
       </c>
@@ -3726,20 +3471,8 @@
       <c r="AE46" s="8"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>18</v>
       </c>
@@ -3773,20 +3506,8 @@
       <c r="AE47" s="12"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>19</v>
       </c>
@@ -3820,20 +3541,8 @@
       <c r="AE48" s="12"/>
       <c r="AF48" s="27"/>
       <c r="AG48" s="11"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="42"/>
-      <c r="AO48" s="42"/>
-      <c r="AP48" s="42"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="42"/>
-      <c r="AS48" s="42"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>20</v>
       </c>
@@ -3867,20 +3576,8 @@
       <c r="AE49" s="12"/>
       <c r="AF49" s="27"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>21</v>
       </c>
@@ -3914,20 +3611,8 @@
       <c r="AE50" s="12"/>
       <c r="AF50" s="27"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
-      <c r="AJ50" s="42"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="42"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="42"/>
-      <c r="AO50" s="42"/>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="42"/>
-      <c r="AR50" s="42"/>
-      <c r="AS50" s="42"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
         <v>22</v>
       </c>
@@ -3958,27 +3643,11 @@
       <c r="AD51" s="20">
         <v>50</v>
       </c>
-      <c r="AE51" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF51" s="21" t="s">
-        <v>72</v>
-      </c>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="21"/>
       <c r="AG51" s="21"/>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="42"/>
-      <c r="AJ51" s="42"/>
-      <c r="AK51" s="42"/>
-      <c r="AL51" s="42"/>
-      <c r="AM51" s="42"/>
-      <c r="AN51" s="42"/>
-      <c r="AO51" s="42"/>
-      <c r="AP51" s="42"/>
-      <c r="AQ51" s="42"/>
-      <c r="AR51" s="42"/>
-      <c r="AS51" s="42"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
         <v>23</v>
       </c>
@@ -4007,7 +3676,7 @@
       <c r="AA52" s="10"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
         <v>24</v>
       </c>
@@ -4040,7 +3709,7 @@
       <c r="AM53" s="23"/>
       <c r="AN53" s="23"/>
     </row>
-    <row r="54" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>25</v>
       </c>
@@ -4073,7 +3742,7 @@
       <c r="AM54" s="23"/>
       <c r="AN54" s="23"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
         <v>26</v>
       </c>
@@ -4106,7 +3775,7 @@
       <c r="AM55" s="23"/>
       <c r="AN55" s="23"/>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>27</v>
       </c>
@@ -4136,7 +3805,7 @@
       <c r="AB56" s="9"/>
       <c r="AE56" s="10"/>
     </row>
-    <row r="57" spans="1:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" t="s">
         <v>28</v>
       </c>
@@ -4170,7 +3839,7 @@
       <c r="AM57" s="23"/>
       <c r="AN57" s="23"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
@@ -4204,34 +3873,34 @@
       <c r="AM58" s="23"/>
       <c r="AN58" s="23"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AE59" s="10"/>
       <c r="AK59" s="23"/>
       <c r="AL59" s="24"/>
       <c r="AM59" s="23"/>
       <c r="AN59" s="23"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AE60" s="10"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AE61" s="10"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AE62" s="10"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.4">
       <c r="AE63" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="6">
+    <mergeCell ref="AU3:AV14"/>
     <mergeCell ref="AI2:AI31"/>
     <mergeCell ref="AI38:AI39"/>
     <mergeCell ref="AJ38:AJ39"/>
     <mergeCell ref="AK36:AL38"/>
     <mergeCell ref="AK33:AL34"/>
-    <mergeCell ref="AU3:AV14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -4254,21 +3923,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA40715-6F6B-5649-8058-60881427272C}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="17" max="17" width="29.33203125" customWidth="1"/>
     <col min="18" max="18" width="24.6640625" customWidth="1"/>
     <col min="19" max="19" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4278,7 +3947,7 @@
       <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -4303,19 +3972,19 @@
         <v>48</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4361,13 +4030,13 @@
       <c r="N2" s="12"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4413,7 +4082,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4458,10 +4127,10 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="11"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="48"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4507,13 +4176,13 @@
       <c r="N5" s="12"/>
       <c r="O5" s="11"/>
       <c r="Q5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4561,9 +4230,9 @@
       <c r="Q6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="43"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6" s="32"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4608,8 +4277,14 @@
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -4655,7 +4330,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4701,7 +4376,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4747,7 +4422,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4793,7 +4468,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -4839,7 +4514,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -4885,7 +4560,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4931,7 +4606,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -4977,7 +4652,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5023,7 +4698,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5069,7 +4744,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -5115,7 +4790,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -5161,7 +4836,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -5207,7 +4882,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -5253,7 +4928,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -5299,7 +4974,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -5345,7 +5020,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -5391,7 +5066,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -5437,7 +5112,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -5483,7 +5158,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -5529,7 +5204,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -5575,7 +5250,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -5621,7 +5296,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -5667,7 +5342,7 @@
       <c r="N30" s="12"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -5713,7 +5388,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -5753,8 +5428,8 @@
         <f>IF(LEN(User!AG32)=0,"",User!AG32)</f>
         <v>3</v>
       </c>
-      <c r="M32" s="12">
-        <v>10</v>
+      <c r="M32" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="N32" s="12">
         <v>3</v>
@@ -5763,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -5813,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -5825,7 +5500,7 @@
         <f>IF(LEN(User!AF34)=0,"",User!AF34)</f>
         <v/>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
@@ -5841,7 +5516,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -5853,7 +5528,7 @@
         <f>IF(LEN(User!AF35)=0,"",User!AF35)</f>
         <v/>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="11"/>
@@ -5869,7 +5544,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -5881,7 +5556,7 @@
         <f>IF(LEN(User!AF36)=0,"",User!AF36)</f>
         <v/>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="11"/>
@@ -5896,7 +5571,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -5908,7 +5583,7 @@
         <f>IF(LEN(User!AF37)=0,"",User!AF37)</f>
         <v/>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="11"/>
@@ -5924,7 +5599,7 @@
       <c r="N37" s="12"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -5936,7 +5611,7 @@
         <f>IF(LEN(User!AF38)=0,"",User!AF38)</f>
         <v/>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="11"/>
@@ -5952,7 +5627,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -5964,7 +5639,7 @@
         <f>IF(LEN(User!AF39)=0,"",User!AF39)</f>
         <v/>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="11"/>
@@ -5980,7 +5655,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -5992,7 +5667,7 @@
         <f>IF(LEN(User!AF40)=0,"",User!AF40)</f>
         <v/>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -6008,7 +5683,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -6020,7 +5695,7 @@
         <f>IF(LEN(User!AF41)=0,"",User!AF41)</f>
         <v/>
       </c>
-      <c r="D41" s="40"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="11"/>
@@ -6036,7 +5711,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -6048,7 +5723,7 @@
         <f>IF(LEN(User!AF42)=0,"",User!AF42)</f>
         <v/>
       </c>
-      <c r="D42" s="40"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="11"/>
@@ -6064,7 +5739,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -6076,7 +5751,7 @@
         <f>IF(LEN(User!AF43)=0,"",User!AF43)</f>
         <v/>
       </c>
-      <c r="D43" s="40"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="11"/>
@@ -6092,7 +5767,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -6104,7 +5779,7 @@
         <f>IF(LEN(User!AF44)=0,"",User!AF44)</f>
         <v/>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="11"/>
@@ -6120,7 +5795,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -6132,7 +5807,7 @@
         <f>IF(LEN(User!AF45)=0,"",User!AF45)</f>
         <v/>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="11"/>
@@ -6148,7 +5823,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -6160,7 +5835,7 @@
         <f>IF(LEN(User!AF46)=0,"",User!AF46)</f>
         <v/>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="11"/>
@@ -6176,7 +5851,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -6188,7 +5863,7 @@
         <f>IF(LEN(User!AF47)=0,"",User!AF47)</f>
         <v/>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="11"/>
@@ -6204,7 +5879,7 @@
       <c r="N47" s="12"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -6216,7 +5891,7 @@
         <f>IF(LEN(User!AF48)=0,"",User!AF48)</f>
         <v/>
       </c>
-      <c r="D48" s="41"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="11"/>
@@ -6232,7 +5907,7 @@
       <c r="N48" s="12"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -6244,7 +5919,7 @@
         <f>IF(LEN(User!AF49)=0,"",User!AF49)</f>
         <v/>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="11"/>
@@ -6260,7 +5935,7 @@
       <c r="N49" s="12"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -6272,7 +5947,7 @@
         <f>IF(LEN(User!AF50)=0,"",User!AF50)</f>
         <v/>
       </c>
-      <c r="D50" s="41"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="11"/>
@@ -6288,46 +5963,27 @@
       <c r="N50" s="12"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="20">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="str">
         <f>IF(LEN(User!AE51)=0,"",User!AE51)</f>
-        <v>Condition</v>
+        <v/>
       </c>
       <c r="C51" s="13" t="str">
         <f>IF(LEN(User!AF51)=0,"",User!AF51)</f>
-        <v>Test50</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="29" t="str">
-        <f>IF(LEN(User!AG51)=0,"",User!AG51)</f>
         <v/>
       </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="29"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="21"/>

--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7C7E8BA-5CC4-4271-B611-C0C6CADF7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6F9BAE-57F7-4610-A78F-0F18A95C5C8E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C7C7E8BA-5CC4-4271-B611-C0C6CADF7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC927630-DBAD-4BC4-98F2-F02A373D0A30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Manager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="74">
   <si>
     <t>Number:</t>
   </si>
@@ -256,6 +257,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>QC between:</t>
   </si>
 </sst>
 </file>
@@ -3924,10 +3928,10 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -3983,6 +3987,9 @@
       <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
@@ -4698,7 +4705,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -4744,7 +4751,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -4790,7 +4797,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="11"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -4836,7 +4843,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="11"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -4882,7 +4889,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -4928,7 +4935,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -4974,7 +4981,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -5020,7 +5027,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -5066,7 +5073,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -5112,7 +5119,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -5158,7 +5165,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -5204,7 +5211,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -5250,7 +5257,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -5296,7 +5303,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -5342,7 +5349,7 @@
       <c r="N30" s="12"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -5388,7 +5395,7 @@
       <c r="N31" s="12"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -5437,8 +5444,11 @@
       <c r="O32" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -5487,8 +5497,11 @@
       <c r="O33" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -5516,7 +5529,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -5544,7 +5557,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="11"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -5571,7 +5584,7 @@
       <c r="N36" s="12"/>
       <c r="O36" s="11"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -5599,7 +5612,7 @@
       <c r="N37" s="12"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -5627,7 +5640,7 @@
       <c r="N38" s="12"/>
       <c r="O38" s="11"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -5655,7 +5668,7 @@
       <c r="N39" s="12"/>
       <c r="O39" s="11"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -5683,7 +5696,7 @@
       <c r="N40" s="12"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -5711,7 +5724,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -5739,7 +5752,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -5767,7 +5780,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -5795,7 +5808,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -5823,7 +5836,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -5851,7 +5864,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -5879,7 +5892,7 @@
       <c r="N47" s="12"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>47</v>
       </c>

--- a/worklist_template0821.xlsx
+++ b/worklist_template0821.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivint\OneDrive\Desktop\Kelly_Lab\.venv\worklist_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C7C7E8BA-5CC4-4271-B611-C0C6CADF7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC927630-DBAD-4BC4-98F2-F02A373D0A30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5910DDBE-A351-4778-9C6F-3554FF582AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Manager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="76">
   <si>
     <t>Number:</t>
   </si>
@@ -260,6 +259,12 @@
   </si>
   <si>
     <t>QC between:</t>
+  </si>
+  <si>
+    <t>TrueBlank Well Location</t>
+  </si>
+  <si>
+    <t>RA25</t>
   </si>
 </sst>
 </file>
@@ -591,10 +596,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -916,7 +917,7 @@
   <sheetViews>
     <sheetView zoomScale="44" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG37" sqref="AG37"/>
+      <selection pane="bottomLeft" activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -2812,7 +2813,7 @@
         <v>30</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AF31" s="7">
         <v>30</v>
@@ -2961,9 +2962,21 @@
       <c r="AD34" s="12">
         <v>33</v>
       </c>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
+      <c r="AE34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>67</v>
+      </c>
+      <c r="AG34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>75</v>
+      </c>
       <c r="AK34" s="43"/>
       <c r="AL34" s="43"/>
     </row>
@@ -3928,10 +3941,10 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -5355,7 +5368,7 @@
       </c>
       <c r="B31" s="8" t="str">
         <f>IF(LEN(User!AE31)=0,"",User!AE31)</f>
-        <v>Condition</v>
+        <v>QC</v>
       </c>
       <c r="C31" s="7">
         <f>IF(LEN(User!AF31)=0,"",User!AF31)</f>
@@ -5389,11 +5402,18 @@
         <f>IF(LEN(User!AG31)=0,"",User!AG31)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="12">
-        <v>3</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="11"/>
+      <c r="M31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
@@ -5439,13 +5459,13 @@
         <v>55</v>
       </c>
       <c r="N32" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
@@ -5492,40 +5512,57 @@
         <v>55</v>
       </c>
       <c r="N33" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="str">
-        <f>IF(LEN(User!AE34)=0,"",User!AE34)</f>
-        <v/>
-      </c>
-      <c r="C34" s="7" t="str">
+      <c r="B34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7">
         <f>IF(LEN(User!AF34)=0,"",User!AF34)</f>
-        <v/>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="29" t="str">
+        <v>67</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="29">
         <f>IF(LEN(User!AG34)=0,"",User!AG34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="12">
+        <v>3</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="11"/>
     </row>
